--- a/20_設計/22_データベース設計/データベース設計書.xlsx
+++ b/20_設計/22_データベース設計/データベース設計書.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\systemdev\2023Dev3Early\20_設計\22_データベース設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74BAEA7-E262-48C1-A3BA-4FDFC6A6078A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC5C023-2B42-43D0-A5DF-9B4E36E70BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18830" yWindow="10800" windowWidth="19660" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
     <sheet name="E-Rモデル　　エンティティ一覧" sheetId="11" r:id="rId2"/>
-    <sheet name="エンティティ定義書（評価）" sheetId="25" r:id="rId3"/>
-    <sheet name="エンティティ定義書（ユーザ）" sheetId="19" r:id="rId4"/>
+    <sheet name="エンティティ定義書（ユーザ）" sheetId="19" r:id="rId3"/>
+    <sheet name="エンティティ定義書（評価）" sheetId="25" r:id="rId4"/>
     <sheet name="エンティティ定義書（投稿） " sheetId="20" r:id="rId5"/>
     <sheet name="エンティティ定義書（回答）" sheetId="21" r:id="rId6"/>
     <sheet name="エンティティ定義書（投稿画像）" sheetId="22" r:id="rId7"/>
@@ -30,14 +30,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'CRUD図 '!$A$1:$V$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'エンティティ定義書（イベント）'!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'エンティティ定義書（ユーザ）'!$A$1:$H$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'エンティティ定義書（ユーザ）'!$A$1:$H$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'エンティティ定義書（回答）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'エンティティ定義書（回答ファイル）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'エンティティ定義書（回答画像）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'エンティティ定義書（投稿） '!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'エンティティ定義書（投稿ファイル）'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'エンティティ定義書（投稿画像）'!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'エンティティ定義書（評価）'!$A$1:$H$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'エンティティ定義書（評価）'!$A$1:$H$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="199">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -885,10 +885,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>投稿ID</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -1273,6 +1269,21 @@
   </si>
   <si>
     <t>post_image_path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_loginid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>範囲'(1..4)</t>
+    <rPh sb="0" eb="1">
+      <t>ハンイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2258,7 +2269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2925,6 +2936,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2971,22 +2988,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>183266</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19290</xdr:rowOff>
+      <xdr:colOff>120571</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1671696</xdr:colOff>
+      <xdr:colOff>1713930</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>31490</xdr:rowOff>
+      <xdr:rowOff>16652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2597230F-5EED-AC11-7A72-3AA571072816}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF59CAE1-037F-E74F-7B9D-3A771775B005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,8 +3019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="183266" y="6616860"/>
-          <a:ext cx="8047417" cy="6088908"/>
+          <a:off x="120571" y="6560258"/>
+          <a:ext cx="8136270" cy="6188546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3341,7 +3358,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:AE18"/>
     </sheetView>
   </sheetViews>
@@ -3939,7 +3956,7 @@
       <c r="D8" s="148"/>
       <c r="E8" s="149"/>
       <c r="F8" s="153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="154"/>
       <c r="H8" s="154"/>
@@ -4501,7 +4518,7 @@
       <c r="H24" s="137"/>
       <c r="I24" s="138"/>
       <c r="J24" s="133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="134"/>
       <c r="L24" s="134"/>
@@ -4531,7 +4548,7 @@
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="134"/>
       <c r="D25" s="134"/>
@@ -4543,7 +4560,7 @@
       <c r="H25" s="137"/>
       <c r="I25" s="138"/>
       <c r="J25" s="139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" s="140"/>
       <c r="L25" s="140"/>
@@ -5144,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="62" t="s">
@@ -5158,7 +5175,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -5166,10 +5183,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="67" t="s">
@@ -5180,7 +5197,7 @@
       </c>
       <c r="G12" s="68"/>
       <c r="H12" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -5188,14 +5205,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>126</v>
@@ -5513,7 +5530,7 @@
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="184"/>
       <c r="E42" s="185"/>
@@ -5522,7 +5539,7 @@
       </c>
       <c r="G42" s="185"/>
       <c r="H42" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -5613,7 +5630,7 @@
       </c>
       <c r="B50" s="94"/>
       <c r="C50" s="183" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="184"/>
       <c r="E50" s="185"/>
@@ -5622,7 +5639,7 @@
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
@@ -5928,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="62" t="s">
@@ -5942,7 +5959,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -5950,14 +5967,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="68"/>
@@ -5968,14 +5985,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="68"/>
@@ -5986,10 +6003,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="199" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="200"/>
       <c r="E14" s="67" t="s">
@@ -6006,14 +6023,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="199" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="200"/>
       <c r="E15" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>126</v>
@@ -6311,7 +6328,7 @@
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D42" s="184"/>
       <c r="E42" s="185"/>
@@ -6320,7 +6337,7 @@
       </c>
       <c r="G42" s="185"/>
       <c r="H42" s="95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -6411,7 +6428,7 @@
       </c>
       <c r="B50" s="94"/>
       <c r="C50" s="183" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="184"/>
       <c r="E50" s="185"/>
@@ -6420,7 +6437,7 @@
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
@@ -6539,7 +6556,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:O9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -6751,11 +6768,12 @@
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
       <c r="G10" s="100" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!B10</f>
+        <f>'エンティティ定義書（ユーザ）'!C6</f>
+        <v>ユーザ</v>
+      </c>
+      <c r="H10" s="100" t="str">
+        <f>'エンティティ定義書（評価）'!C6</f>
         <v>評価</v>
-      </c>
-      <c r="H10" s="100" t="s">
-        <v>161</v>
       </c>
       <c r="I10" s="101" t="str">
         <f>'E-Rモデル　　エンティティ一覧'!B12</f>
@@ -6793,7 +6811,7 @@
         <v>116</v>
       </c>
       <c r="C11" s="222" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="223"/>
       <c r="E11" s="223"/>
@@ -6945,7 +6963,7 @@
       <c r="A15" s="96"/>
       <c r="B15" s="220"/>
       <c r="C15" s="223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="223"/>
       <c r="E15" s="223"/>
@@ -7285,7 +7303,7 @@
       <c r="A24" s="96"/>
       <c r="B24" s="220"/>
       <c r="C24" s="223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="223"/>
       <c r="E24" s="223"/>
@@ -7628,8 +7646,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -7710,7 +7728,7 @@
       </c>
       <c r="B5" s="174"/>
       <c r="C5" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
@@ -7778,16 +7796,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>162</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="131"/>
     </row>
@@ -8203,6 +8221,811 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D020CF-F891-4147-9039-008DBBC8CC46}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41" t="str">
+        <f>表紙!F8</f>
+        <v>課題投稿サイト</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="91">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="41" t="str">
+        <f>'E-Rモデル　　エンティティ一覧'!C3</f>
+        <v>データベース設計</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41" t="str">
+        <f>表紙!B16</f>
+        <v>データベース設計書</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="92" t="str">
+        <f>'E-Rモデル　　エンティティ一覧'!F4</f>
+        <v>v1.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="203" t="str">
+        <f>'E-Rモデル　　エンティティ一覧'!B11</f>
+        <v>ユーザ</v>
+      </c>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="205"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="203" t="str">
+        <f>'E-Rモデル　　エンティティ一覧'!C11</f>
+        <v>users</v>
+      </c>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="205"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="203" t="str">
+        <f>'E-Rモデル　　エンティティ一覧'!E11</f>
+        <v>ユーザ情報</v>
+      </c>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="205"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="189" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="206"/>
+      <c r="E10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="60">
+        <v>1</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="217" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="218"/>
+      <c r="E11" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="60">
+        <v>2</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="231" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="232"/>
+      <c r="E12" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="60">
+        <v>3</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="199" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="200"/>
+      <c r="E13" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="60">
+        <v>4</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="199" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="200"/>
+      <c r="E14" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="60">
+        <v>5</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="199" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="200"/>
+      <c r="E15" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="60">
+        <v>6</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="199" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="200"/>
+      <c r="E16" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="60">
+        <v>7</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="199" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="200"/>
+      <c r="E17" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="60">
+        <v>8</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="199" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="200"/>
+      <c r="E18" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="60">
+        <v>9</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="199" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="200"/>
+      <c r="E19" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="60">
+        <v>10</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="199" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="200"/>
+      <c r="E20" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A28" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A29" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="186" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="188"/>
+      <c r="D29" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="60"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="65"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="69"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A34" s="75"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A36" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A37" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="186" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="198"/>
+      <c r="H37" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="93">
+        <v>1</v>
+      </c>
+      <c r="B38" s="94"/>
+      <c r="C38" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="183" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="185"/>
+      <c r="H38" s="95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="124"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="126"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="124"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="126"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="124"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="126"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A42" s="127"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="213"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="129"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A44" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A45" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="186" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="190"/>
+      <c r="H45" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="93">
+        <v>1</v>
+      </c>
+      <c r="B46" s="94"/>
+      <c r="C46" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="184"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="185"/>
+      <c r="H46" s="95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="83"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="85"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="83"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="177"/>
+      <c r="H48" s="85"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="83"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="85"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A50" s="86"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD85334-CAFF-4FCA-B221-2798F45C9CE6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8397,10 +9220,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="199" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="199" t="s">
-        <v>165</v>
       </c>
       <c r="D11" s="200"/>
       <c r="E11" s="67" t="s">
@@ -8411,7 +9234,7 @@
       </c>
       <c r="G11" s="73"/>
       <c r="H11" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -8422,7 +9245,7 @@
         <v>92</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="62" t="s">
@@ -8433,7 +9256,7 @@
       </c>
       <c r="G12" s="132"/>
       <c r="H12" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -8444,7 +9267,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="62" t="s">
@@ -8464,7 +9287,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="199" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="200"/>
       <c r="E14" s="62" t="s">
@@ -8484,7 +9307,7 @@
         <v>95</v>
       </c>
       <c r="C15" s="207" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="208"/>
       <c r="E15" s="62" t="s">
@@ -8504,7 +9327,7 @@
         <v>96</v>
       </c>
       <c r="C16" s="199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="200"/>
       <c r="E16" s="62" t="s">
@@ -8818,16 +9641,16 @@
       </c>
       <c r="B43" s="94"/>
       <c r="C43" s="183" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D43" s="184"/>
       <c r="E43" s="185"/>
       <c r="F43" s="183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G43" s="185"/>
       <c r="H43" s="95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
@@ -8931,14 +9754,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D020CF-F891-4147-9039-008DBBC8CC46}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F50A19-167F-4F0C-AE09-3544B2220BFC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
@@ -9046,8 +9869,8 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="203" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!B11</f>
-        <v>ユーザ</v>
+        <f>'E-Rモデル　　エンティティ一覧'!B12</f>
+        <v>投稿</v>
       </c>
       <c r="D6" s="204"/>
       <c r="E6" s="204"/>
@@ -9061,8 +9884,8 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="203" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!C11</f>
-        <v>users</v>
+        <f>'E-Rモデル　　エンティティ一覧'!C12</f>
+        <v>posts</v>
       </c>
       <c r="D7" s="204"/>
       <c r="E7" s="204"/>
@@ -9076,8 +9899,8 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="203" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!E11</f>
-        <v>ユーザ情報</v>
+        <f>'E-Rモデル　　エンティティ一覧'!E12</f>
+        <v>投稿の情報</v>
       </c>
       <c r="D8" s="204"/>
       <c r="E8" s="204"/>
@@ -9126,10 +9949,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="62" t="s">
@@ -9140,42 +9963,44 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="65">
         <v>2</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>86</v>
+      <c r="B12" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>126</v>
       </c>
       <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="H12" s="69" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="65">
         <v>3</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>118</v>
+      <c r="B13" s="61" t="s">
+        <v>130</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="67" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>126</v>
@@ -9187,155 +10012,141 @@
       <c r="A14" s="70">
         <v>4</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>87</v>
+      <c r="B14" s="61" t="s">
+        <v>131</v>
       </c>
       <c r="C14" s="199" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D14" s="200"/>
       <c r="E14" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="73"/>
+      <c r="G14" s="73" t="s">
+        <v>189</v>
+      </c>
       <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="60">
         <v>5</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>88</v>
+      <c r="B15" s="61" t="s">
+        <v>132</v>
       </c>
       <c r="C15" s="199" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D15" s="200"/>
       <c r="E15" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="72"/>
+        <v>128</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>126</v>
+      </c>
       <c r="G15" s="73"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="65">
+      <c r="A16" s="70">
         <v>6</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>89</v>
+      <c r="B16" s="61" t="s">
+        <v>133</v>
       </c>
       <c r="C16" s="199" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D16" s="200"/>
       <c r="E16" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="67" t="s">
         <v>126</v>
       </c>
       <c r="G16" s="73"/>
       <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="65">
+      <c r="A17" s="60">
         <v>7</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>90</v>
+      <c r="B17" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C17" s="199" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D17" s="200"/>
       <c r="E17" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="72"/>
+        <v>194</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>126</v>
+      </c>
       <c r="G17" s="73"/>
       <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="70">
-        <v>8</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="199" t="s">
-        <v>124</v>
-      </c>
+      <c r="A18" s="70"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="199"/>
       <c r="D18" s="200"/>
-      <c r="E18" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="72"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="73"/>
       <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="70">
-        <v>9</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="199" t="s">
-        <v>165</v>
-      </c>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="199"/>
       <c r="D19" s="200"/>
-      <c r="E19" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>126</v>
-      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="73"/>
-      <c r="H19" s="74" t="s">
-        <v>143</v>
-      </c>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="199"/>
       <c r="D20" s="200"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="73"/>
       <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="199"/>
       <c r="D21" s="200"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="73"/>
       <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="199"/>
       <c r="D22" s="200"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="73"/>
       <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="199"/>
       <c r="D23" s="200"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="73"/>
       <c r="H23" s="74"/>
     </row>
@@ -9349,777 +10160,6 @@
       <c r="G24" s="73"/>
       <c r="H24" s="74"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="186" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="188"/>
-      <c r="D28" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="201"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="194"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="196"/>
-      <c r="C33" s="197"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="186" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="187"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="186" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="198"/>
-      <c r="H36" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="93">
-        <v>1</v>
-      </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="184"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="183" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="185"/>
-      <c r="H37" s="95" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="126"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="124"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="210"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="126"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="124"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="210"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="126"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="127"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="212"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="216"/>
-      <c r="H41" s="129"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="186" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="187"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="189" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="190"/>
-      <c r="H44" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="93">
-        <v>1</v>
-      </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="184"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="183" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="185"/>
-      <c r="H45" s="95" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="83"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="85"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="175"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="85"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="83"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="175"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="85"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="86"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="88"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F50A19-167F-4F0C-AE09-3544B2220BFC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="110"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41" t="str">
-        <f>表紙!F8</f>
-        <v>課題投稿サイト</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="91">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!C3</f>
-        <v>データベース設計</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41" t="str">
-        <f>表紙!B16</f>
-        <v>データベース設計書</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="92" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!F4</f>
-        <v>v1.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="203" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!B12</f>
-        <v>投稿</v>
-      </c>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="205"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="203" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!C12</f>
-        <v>posts</v>
-      </c>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="205"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="203" t="str">
-        <f>'E-Rモデル　　エンティティ一覧'!E12</f>
-        <v>投稿の情報</v>
-      </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="205"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="189" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="206"/>
-      <c r="E10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="60">
-        <v>1</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="217" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="218"/>
-      <c r="E11" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="65">
-        <v>2</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="199" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="65">
-        <v>3</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="199" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="70">
-        <v>4</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="199" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="200"/>
-      <c r="E14" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="74"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="60">
-        <v>5</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="199" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="70">
-        <v>6</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="199" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="200"/>
-      <c r="E16" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="60">
-        <v>7</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="199" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="200"/>
-      <c r="E17" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-    </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="70"/>
       <c r="B25" s="71"/>
@@ -10420,7 +10460,7 @@
       </c>
       <c r="B50" s="94"/>
       <c r="C50" s="183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" s="184"/>
       <c r="E50" s="185"/>
@@ -10429,7 +10469,7 @@
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
@@ -10735,10 +10775,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="62" t="s">
@@ -10749,7 +10789,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -10757,10 +10797,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="62" t="s">
@@ -10771,7 +10811,7 @@
       </c>
       <c r="G12" s="68"/>
       <c r="H12" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -10793,7 +10833,7 @@
       </c>
       <c r="G13" s="68"/>
       <c r="H13" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -10801,20 +10841,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="199" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="200"/>
       <c r="E14" s="67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="74"/>
     </row>
@@ -10823,14 +10863,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="199" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="200"/>
       <c r="E15" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>126</v>
@@ -11128,7 +11168,7 @@
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="184"/>
       <c r="E42" s="185"/>
@@ -11137,7 +11177,7 @@
       </c>
       <c r="G42" s="211"/>
       <c r="H42" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -11235,7 +11275,7 @@
       </c>
       <c r="B50" s="94"/>
       <c r="C50" s="183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="184"/>
       <c r="E50" s="185"/>
@@ -11244,7 +11284,7 @@
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
@@ -11549,10 +11589,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="62" t="s">
@@ -11563,7 +11603,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -11571,10 +11611,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="67" t="s">
@@ -11585,7 +11625,7 @@
       </c>
       <c r="G12" s="68"/>
       <c r="H12" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -11593,14 +11633,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>126</v>
@@ -11918,7 +11958,7 @@
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="184"/>
       <c r="E42" s="185"/>
@@ -11927,7 +11967,7 @@
       </c>
       <c r="G42" s="185"/>
       <c r="H42" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -12018,7 +12058,7 @@
       </c>
       <c r="B50" s="94"/>
       <c r="C50" s="183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="184"/>
       <c r="E50" s="185"/>
@@ -12027,7 +12067,7 @@
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
@@ -12333,10 +12373,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="62" t="s">
@@ -12347,7 +12387,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -12355,10 +12395,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="67" t="s">
@@ -12369,7 +12409,7 @@
       </c>
       <c r="G12" s="68"/>
       <c r="H12" s="69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -12377,14 +12417,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>126</v>
@@ -12702,7 +12742,7 @@
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="184"/>
       <c r="E42" s="185"/>
@@ -12711,7 +12751,7 @@
       </c>
       <c r="G42" s="185"/>
       <c r="H42" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -13111,10 +13151,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="62" t="s">
@@ -13125,7 +13165,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -13133,10 +13173,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="67" t="s">
@@ -13147,7 +13187,7 @@
       </c>
       <c r="G12" s="68"/>
       <c r="H12" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -13155,14 +13195,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>126</v>
@@ -13480,7 +13520,7 @@
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="184"/>
       <c r="E42" s="185"/>
@@ -13489,7 +13529,7 @@
       </c>
       <c r="G42" s="185"/>
       <c r="H42" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -13580,7 +13620,7 @@
       </c>
       <c r="B50" s="94"/>
       <c r="C50" s="183" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="184"/>
       <c r="E50" s="185"/>
@@ -13589,7 +13629,7 @@
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
